--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/25/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/25/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.6276</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>5627.6</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.28938</v>
+        <v>6.66333</v>
       </c>
       <c r="C8" t="n">
-        <v>6289.38</v>
+        <v>6663.33</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>6.65795</v>
+        <v>7.41758</v>
       </c>
       <c r="C9" t="n">
-        <v>6657.95</v>
+        <v>7417.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247948</v>
       </c>
       <c r="B10" t="n">
-        <v>6.7766</v>
+        <v>8.116390000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>6776.6</v>
+        <v>8116.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278892</v>
+        <v>0.278873</v>
       </c>
       <c r="B11" t="n">
-        <v>6.773090000000001</v>
+        <v>8.805280000000002</v>
       </c>
       <c r="C11" t="n">
-        <v>6773.09</v>
+        <v>8805.280000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309817</v>
+        <v>0.309798</v>
       </c>
       <c r="B12" t="n">
-        <v>6.75266</v>
+        <v>9.283110000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>6752.66</v>
+        <v>9283.110000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340742</v>
+        <v>0.340723</v>
       </c>
       <c r="B13" t="n">
-        <v>6.72615</v>
+        <v>9.724309999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>6726.15</v>
+        <v>9724.309999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371667</v>
+        <v>0.371648</v>
       </c>
       <c r="B14" t="n">
-        <v>6.69767</v>
+        <v>10.1273</v>
       </c>
       <c r="C14" t="n">
-        <v>6697.67</v>
+        <v>10127.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402592</v>
+        <v>0.402573</v>
       </c>
       <c r="B15" t="n">
-        <v>6.66858</v>
+        <v>10.483</v>
       </c>
       <c r="C15" t="n">
-        <v>6668.58</v>
+        <v>10483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433517</v>
+        <v>0.433498</v>
       </c>
       <c r="B16" t="n">
-        <v>6.63904</v>
+        <v>10.7174</v>
       </c>
       <c r="C16" t="n">
-        <v>6639.04</v>
+        <v>10717.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464442</v>
+        <v>0.464423</v>
       </c>
       <c r="B17" t="n">
-        <v>6.6085</v>
+        <v>10.8962</v>
       </c>
       <c r="C17" t="n">
-        <v>6608.5</v>
+        <v>10896.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495367</v>
+        <v>0.495348</v>
       </c>
       <c r="B18" t="n">
-        <v>6.57758</v>
+        <v>10.9696</v>
       </c>
       <c r="C18" t="n">
-        <v>6577.58</v>
+        <v>10969.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526292</v>
+        <v>0.526273</v>
       </c>
       <c r="B19" t="n">
-        <v>6.54637</v>
+        <v>10.9903</v>
       </c>
       <c r="C19" t="n">
-        <v>6546.37</v>
+        <v>10990.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557217</v>
+        <v>0.557198</v>
       </c>
       <c r="B20" t="n">
-        <v>6.51295</v>
+        <v>10.9682</v>
       </c>
       <c r="C20" t="n">
-        <v>6512.95</v>
+        <v>10968.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881420000000001</v>
+        <v>0.588123</v>
       </c>
       <c r="B21" t="n">
-        <v>6.47703</v>
+        <v>10.9355</v>
       </c>
       <c r="C21" t="n">
-        <v>6477.03</v>
+        <v>10935.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619184</v>
+        <v>0.619165</v>
       </c>
       <c r="B22" t="n">
-        <v>6.43649</v>
+        <v>10.8978</v>
       </c>
       <c r="C22" t="n">
-        <v>6436.49</v>
+        <v>10897.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650338</v>
       </c>
       <c r="B23" t="n">
-        <v>6.39417</v>
+        <v>10.8564</v>
       </c>
       <c r="C23" t="n">
-        <v>6394.17</v>
+        <v>10856.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68153</v>
+        <v>0.6815099999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>6.34728</v>
+        <v>10.8129</v>
       </c>
       <c r="C24" t="n">
-        <v>6347.28</v>
+        <v>10812.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712707</v>
+        <v>0.712687</v>
       </c>
       <c r="B25" t="n">
-        <v>6.298430000000001</v>
+        <v>10.7672</v>
       </c>
       <c r="C25" t="n">
-        <v>6298.43</v>
+        <v>10767.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743879</v>
+        <v>0.74386</v>
       </c>
       <c r="B26" t="n">
-        <v>6.24614</v>
+        <v>10.7191</v>
       </c>
       <c r="C26" t="n">
-        <v>6246.14</v>
+        <v>10719.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775056</v>
+        <v>0.775037</v>
       </c>
       <c r="B27" t="n">
-        <v>6.191520000000001</v>
+        <v>10.6688</v>
       </c>
       <c r="C27" t="n">
-        <v>6191.52</v>
+        <v>10668.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806229</v>
+        <v>0.806209</v>
       </c>
       <c r="B28" t="n">
-        <v>6.13371</v>
+        <v>10.6155</v>
       </c>
       <c r="C28" t="n">
-        <v>6133.71</v>
+        <v>10615.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837401</v>
+        <v>0.837382</v>
       </c>
       <c r="B29" t="n">
-        <v>6.073060000000001</v>
+        <v>10.5568</v>
       </c>
       <c r="C29" t="n">
-        <v>6073.06</v>
+        <v>10556.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868578</v>
+        <v>0.868559</v>
       </c>
       <c r="B30" t="n">
-        <v>6.010689999999999</v>
+        <v>10.4932</v>
       </c>
       <c r="C30" t="n">
-        <v>6010.69</v>
+        <v>10493.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899751</v>
+        <v>0.8997309999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>5.94412</v>
+        <v>10.4252</v>
       </c>
       <c r="C31" t="n">
-        <v>5944.12</v>
+        <v>10425.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9309229999999999</v>
+        <v>0.930904</v>
       </c>
       <c r="B32" t="n">
-        <v>5.875859999999999</v>
+        <v>10.3521</v>
       </c>
       <c r="C32" t="n">
-        <v>5875.86</v>
+        <v>10352.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9621</v>
+        <v>0.962081</v>
       </c>
       <c r="B33" t="n">
-        <v>5.80372</v>
+        <v>10.2729</v>
       </c>
       <c r="C33" t="n">
-        <v>5803.72</v>
+        <v>10272.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993143</v>
+        <v>0.993254</v>
       </c>
       <c r="B34" t="n">
-        <v>3.76322</v>
+        <v>10.1899</v>
       </c>
       <c r="C34" t="n">
-        <v>3763.22</v>
+        <v>10189.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02421</v>
+        <v>1.02428</v>
       </c>
       <c r="B35" t="n">
-        <v>5.47104</v>
+        <v>10.0992</v>
       </c>
       <c r="C35" t="n">
-        <v>5471.04</v>
+        <v>10099.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05514</v>
+        <v>1.05525</v>
       </c>
       <c r="B36" t="n">
-        <v>5.21264</v>
+        <v>10.0051</v>
       </c>
       <c r="C36" t="n">
-        <v>5212.64</v>
+        <v>10005.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0862</v>
+        <v>1.08622</v>
       </c>
       <c r="B37" t="n">
-        <v>5.44748</v>
+        <v>9.90391</v>
       </c>
       <c r="C37" t="n">
-        <v>5447.48</v>
+        <v>9903.91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.1172</v>
+        <v>1.11719</v>
       </c>
       <c r="B38" t="n">
-        <v>5.408939999999999</v>
+        <v>9.798500000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>5408.94</v>
+        <v>9798.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14824</v>
+        <v>1.14816</v>
       </c>
       <c r="B39" t="n">
-        <v>5.36023</v>
+        <v>9.686450000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>5360.23</v>
+        <v>9686.450000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17929</v>
+        <v>1.17912</v>
       </c>
       <c r="B40" t="n">
-        <v>5.22245</v>
+        <v>9.57</v>
       </c>
       <c r="C40" t="n">
-        <v>5222.45</v>
+        <v>9570</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21034</v>
+        <v>1.21003</v>
       </c>
       <c r="B41" t="n">
-        <v>5.10864</v>
+        <v>5.896850000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>5108.64</v>
+        <v>5896.85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24201</v>
+        <v>1.24075</v>
       </c>
       <c r="B42" t="n">
-        <v>5.06557</v>
+        <v>7.01599</v>
       </c>
       <c r="C42" t="n">
-        <v>5065.57</v>
+        <v>7015.99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27374</v>
+        <v>1.27146</v>
       </c>
       <c r="B43" t="n">
-        <v>4.94725</v>
+        <v>9.48617</v>
       </c>
       <c r="C43" t="n">
-        <v>4947.25</v>
+        <v>9486.17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30546</v>
+        <v>1.30268</v>
       </c>
       <c r="B44" t="n">
-        <v>4.86108</v>
+        <v>8.890280000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>4861.08</v>
+        <v>8890.280000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33718</v>
+        <v>1.3338</v>
       </c>
       <c r="B45" t="n">
-        <v>4.70646</v>
+        <v>9.15734</v>
       </c>
       <c r="C45" t="n">
-        <v>4706.46</v>
+        <v>9157.34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3689</v>
+        <v>1.36447</v>
       </c>
       <c r="B46" t="n">
-        <v>4.63292</v>
+        <v>8.925649999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>4632.92</v>
+        <v>8925.65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40063</v>
+        <v>1.39582</v>
       </c>
       <c r="B47" t="n">
-        <v>4.531029999999999</v>
+        <v>8.69974</v>
       </c>
       <c r="C47" t="n">
-        <v>4531.03</v>
+        <v>8699.74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43235</v>
+        <v>1.42661</v>
       </c>
       <c r="B48" t="n">
-        <v>4.48228</v>
+        <v>8.670020000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>4482.28</v>
+        <v>8670.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46373</v>
+        <v>1.45755</v>
       </c>
       <c r="B49" t="n">
-        <v>4.40186</v>
+        <v>8.57696</v>
       </c>
       <c r="C49" t="n">
-        <v>4401.86</v>
+        <v>8576.959999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49473</v>
+        <v>1.48896</v>
       </c>
       <c r="B50" t="n">
-        <v>4.31385</v>
+        <v>8.29416</v>
       </c>
       <c r="C50" t="n">
-        <v>4313.85</v>
+        <v>8294.16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52608</v>
+        <v>1.52019</v>
       </c>
       <c r="B51" t="n">
-        <v>4.25213</v>
+        <v>8.19815</v>
       </c>
       <c r="C51" t="n">
-        <v>4252.13</v>
+        <v>8198.15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55678</v>
+        <v>1.55126</v>
       </c>
       <c r="B52" t="n">
-        <v>4.177720000000001</v>
+        <v>7.95662</v>
       </c>
       <c r="C52" t="n">
-        <v>4177.72</v>
+        <v>7956.62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58805</v>
+        <v>1.58233</v>
       </c>
       <c r="B53" t="n">
-        <v>4.116689999999999</v>
+        <v>7.7846</v>
       </c>
       <c r="C53" t="n">
-        <v>4116.69</v>
+        <v>7784.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61888</v>
+        <v>1.61312</v>
       </c>
       <c r="B54" t="n">
-        <v>4.01828</v>
+        <v>7.60442</v>
       </c>
       <c r="C54" t="n">
-        <v>4018.28</v>
+        <v>7604.42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64964</v>
+        <v>1.64439</v>
       </c>
       <c r="B55" t="n">
-        <v>3.97416</v>
+        <v>7.50999</v>
       </c>
       <c r="C55" t="n">
-        <v>3974.16</v>
+        <v>7509.99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68036</v>
+        <v>1.67503</v>
       </c>
       <c r="B56" t="n">
-        <v>3.90227</v>
+        <v>7.402760000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>3902.27</v>
+        <v>7402.76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71096</v>
+        <v>1.70642</v>
       </c>
       <c r="B57" t="n">
-        <v>3.84358</v>
+        <v>7.2212</v>
       </c>
       <c r="C57" t="n">
-        <v>3843.58</v>
+        <v>7221.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74195</v>
+        <v>1.73705</v>
       </c>
       <c r="B58" t="n">
-        <v>3.7803</v>
+        <v>7.049</v>
       </c>
       <c r="C58" t="n">
-        <v>3780.3</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77259</v>
+        <v>1.76844</v>
       </c>
       <c r="B59" t="n">
-        <v>3.75586</v>
+        <v>6.929430000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>3755.86</v>
+        <v>6929.43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80354</v>
+        <v>1.79927</v>
       </c>
       <c r="B60" t="n">
-        <v>3.69749</v>
+        <v>6.791609999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>3697.49</v>
+        <v>6791.61</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83432</v>
+        <v>1.83029</v>
       </c>
       <c r="B61" t="n">
-        <v>3.66657</v>
+        <v>6.674729999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>3666.57</v>
+        <v>6674.73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86491</v>
+        <v>1.86141</v>
       </c>
       <c r="B62" t="n">
-        <v>3.60956</v>
+        <v>6.512600000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>3609.56</v>
+        <v>6512.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89591</v>
+        <v>1.89189</v>
       </c>
       <c r="B63" t="n">
-        <v>3.56039</v>
+        <v>6.357460000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>3560.39</v>
+        <v>6357.46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92723</v>
+        <v>1.92342</v>
       </c>
       <c r="B64" t="n">
-        <v>3.5086</v>
+        <v>6.26895</v>
       </c>
       <c r="C64" t="n">
-        <v>3508.6</v>
+        <v>6268.95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95809</v>
+        <v>1.95434</v>
       </c>
       <c r="B65" t="n">
-        <v>3.46355</v>
+        <v>6.142720000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>3463.55</v>
+        <v>6142.72</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98866</v>
+        <v>1.98502</v>
       </c>
       <c r="B66" t="n">
-        <v>3.40158</v>
+        <v>6.02885</v>
       </c>
       <c r="C66" t="n">
-        <v>3401.58</v>
+        <v>6028.85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02042</v>
+        <v>2.01642</v>
       </c>
       <c r="B67" t="n">
-        <v>3.3753</v>
+        <v>5.91222</v>
       </c>
       <c r="C67" t="n">
-        <v>3375.3</v>
+        <v>5912.22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05107</v>
+        <v>2.04716</v>
       </c>
       <c r="B68" t="n">
-        <v>3.32981</v>
+        <v>5.8125</v>
       </c>
       <c r="C68" t="n">
-        <v>3329.81</v>
+        <v>5812.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08147</v>
+        <v>2.07813</v>
       </c>
       <c r="B69" t="n">
-        <v>3.27356</v>
+        <v>5.671489999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>3273.56</v>
+        <v>5671.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11292</v>
+        <v>2.10928</v>
       </c>
       <c r="B70" t="n">
-        <v>3.23465</v>
+        <v>5.61964</v>
       </c>
       <c r="C70" t="n">
-        <v>3234.65</v>
+        <v>5619.64</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14425</v>
+        <v>2.14035</v>
       </c>
       <c r="B71" t="n">
-        <v>3.20719</v>
+        <v>5.510260000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>3207.19</v>
+        <v>5510.26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17497</v>
+        <v>2.17127</v>
       </c>
       <c r="B72" t="n">
-        <v>3.16895</v>
+        <v>5.40817</v>
       </c>
       <c r="C72" t="n">
-        <v>3168.95</v>
+        <v>5408.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20569</v>
+        <v>2.20195</v>
       </c>
       <c r="B73" t="n">
-        <v>3.12127</v>
+        <v>5.33423</v>
       </c>
       <c r="C73" t="n">
-        <v>3121.27</v>
+        <v>5334.23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23685</v>
+        <v>2.23343</v>
       </c>
       <c r="B74" t="n">
-        <v>3.10286</v>
+        <v>5.27054</v>
       </c>
       <c r="C74" t="n">
-        <v>3102.86</v>
+        <v>5270.54</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26794</v>
+        <v>2.26493</v>
       </c>
       <c r="B75" t="n">
-        <v>3.09998</v>
+        <v>5.176970000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3099.98</v>
+        <v>5176.97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29824</v>
+        <v>2.29456</v>
       </c>
       <c r="B76" t="n">
-        <v>3.09266</v>
+        <v>5.128640000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>3092.66</v>
+        <v>5128.64</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3305</v>
+        <v>2.3259</v>
       </c>
       <c r="B77" t="n">
-        <v>3.08174</v>
+        <v>5.0577</v>
       </c>
       <c r="C77" t="n">
-        <v>3081.74</v>
+        <v>5057.7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.363</v>
+        <v>2.35788</v>
       </c>
       <c r="B78" t="n">
-        <v>3.07935</v>
+        <v>4.99142</v>
       </c>
       <c r="C78" t="n">
-        <v>3079.35</v>
+        <v>4991.42</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39387</v>
+        <v>2.38885</v>
       </c>
       <c r="B79" t="n">
-        <v>3.07039</v>
+        <v>4.92964</v>
       </c>
       <c r="C79" t="n">
-        <v>3070.39</v>
+        <v>4929.64</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42416</v>
+        <v>2.42029</v>
       </c>
       <c r="B80" t="n">
-        <v>3.05926</v>
+        <v>4.90958</v>
       </c>
       <c r="C80" t="n">
-        <v>3059.26</v>
+        <v>4909.58</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.457</v>
+        <v>2.44897</v>
       </c>
       <c r="B81" t="n">
-        <v>3.06332</v>
+        <v>4.923220000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>3063.32</v>
+        <v>4923.22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.49028</v>
+        <v>2.47714</v>
       </c>
       <c r="B82" t="n">
-        <v>3.02938</v>
+        <v>4.9492</v>
       </c>
       <c r="C82" t="n">
-        <v>3029.38</v>
+        <v>4949.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.52356</v>
+        <v>2.50531</v>
       </c>
       <c r="B83" t="n">
-        <v>3.00775</v>
+        <v>4.89553</v>
       </c>
       <c r="C83" t="n">
-        <v>3007.75</v>
+        <v>4895.53</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55684</v>
+        <v>2.53516</v>
       </c>
       <c r="B84" t="n">
-        <v>3.01709</v>
+        <v>4.90067</v>
       </c>
       <c r="C84" t="n">
-        <v>3017.09</v>
+        <v>4900.67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58873</v>
+        <v>2.57005</v>
       </c>
       <c r="B85" t="n">
-        <v>3.0034</v>
+        <v>4.87846</v>
       </c>
       <c r="C85" t="n">
-        <v>3003.4</v>
+        <v>4878.46</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61953</v>
+        <v>2.60522</v>
       </c>
       <c r="B86" t="n">
-        <v>2.98847</v>
+        <v>4.859310000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>2988.47</v>
+        <v>4859.31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.65025</v>
+        <v>2.63813</v>
       </c>
       <c r="B87" t="n">
-        <v>2.97481</v>
+        <v>4.81146</v>
       </c>
       <c r="C87" t="n">
-        <v>2974.81</v>
+        <v>4811.46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.68097</v>
+        <v>2.67016</v>
       </c>
       <c r="B88" t="n">
-        <v>2.96333</v>
+        <v>4.82129</v>
       </c>
       <c r="C88" t="n">
-        <v>2963.33</v>
+        <v>4821.29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.71169</v>
+        <v>2.70217</v>
       </c>
       <c r="B89" t="n">
-        <v>2.9442</v>
+        <v>4.80424</v>
       </c>
       <c r="C89" t="n">
-        <v>2944.2</v>
+        <v>4804.24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74241</v>
+        <v>2.73417</v>
       </c>
       <c r="B90" t="n">
-        <v>2.92325</v>
+        <v>4.753270000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>2923.25</v>
+        <v>4753.27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77314</v>
+        <v>2.76617</v>
       </c>
       <c r="B91" t="n">
-        <v>2.89983</v>
+        <v>4.71422</v>
       </c>
       <c r="C91" t="n">
-        <v>2899.83</v>
+        <v>4714.22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80382</v>
+        <v>2.79817</v>
       </c>
       <c r="B92" t="n">
-        <v>2.87737</v>
+        <v>4.68519</v>
       </c>
       <c r="C92" t="n">
-        <v>2877.37</v>
+        <v>4685.19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83282</v>
+        <v>2.83017</v>
       </c>
       <c r="B93" t="n">
-        <v>2.88399</v>
+        <v>4.65587</v>
       </c>
       <c r="C93" t="n">
-        <v>2883.99</v>
+        <v>4655.87</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8611</v>
+        <v>2.86217</v>
       </c>
       <c r="B94" t="n">
-        <v>2.86769</v>
+        <v>4.63605</v>
       </c>
       <c r="C94" t="n">
-        <v>2867.69</v>
+        <v>4636.05</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88927</v>
+        <v>2.89181</v>
       </c>
       <c r="B95" t="n">
-        <v>2.83981</v>
+        <v>4.624239999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>2839.81</v>
+        <v>4624.24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91743</v>
+        <v>2.92069</v>
       </c>
       <c r="B96" t="n">
-        <v>2.84824</v>
+        <v>4.623550000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>2848.24</v>
+        <v>4623.55</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94559</v>
+        <v>2.94951</v>
       </c>
       <c r="B97" t="n">
-        <v>2.81205</v>
+        <v>4.56522</v>
       </c>
       <c r="C97" t="n">
-        <v>2812.05</v>
+        <v>4565.22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97395</v>
+        <v>2.97831</v>
       </c>
       <c r="B98" t="n">
-        <v>2.81723</v>
+        <v>4.53182</v>
       </c>
       <c r="C98" t="n">
-        <v>2817.23</v>
+        <v>4531.82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00747</v>
+        <v>3.00711</v>
       </c>
       <c r="B99" t="n">
-        <v>2.78131</v>
+        <v>4.53584</v>
       </c>
       <c r="C99" t="n">
-        <v>2781.31</v>
+        <v>4535.84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04256</v>
+        <v>3.03591</v>
       </c>
       <c r="B100" t="n">
-        <v>2.78759</v>
+        <v>4.50113</v>
       </c>
       <c r="C100" t="n">
-        <v>2787.59</v>
+        <v>4501.13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07776</v>
+        <v>3.06471</v>
       </c>
       <c r="B101" t="n">
-        <v>2.75702</v>
+        <v>4.46196</v>
       </c>
       <c r="C101" t="n">
-        <v>2757.02</v>
+        <v>4461.96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11198</v>
+        <v>3.09351</v>
       </c>
       <c r="B102" t="n">
-        <v>2.75419</v>
+        <v>4.45716</v>
       </c>
       <c r="C102" t="n">
-        <v>2754.19</v>
+        <v>4457.16</v>
       </c>
     </row>
   </sheetData>
